--- a/biology/Microbiologie/Cupriavidus/Cupriavidus.xlsx
+++ b/biology/Microbiologie/Cupriavidus/Cupriavidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Cupriavidus est un genre bactérien, membre des Betaproteobacteria. Ce sont des bactéries Gram-négatives mobiles, de forme ronde ayant un métabolisme oxydant. Elles possèdent des flagelles péritriches. Ce sont des organismes aérobiques obligatoires chimiolithotrophes. Ce genre est connu pour sa multirésistance aux métaux lourds et est un modèle biologique en bioremédiation. 
 Ce genre regroupe des espèces autrefois classées dans le genre Wautersia, et encore avant dans le genre Ralstonia.
